--- a/biology/Zoologie/Coucou_d'Allemagne/Coucou_d'Allemagne.xlsx
+++ b/biology/Zoologie/Coucou_d'Allemagne/Coucou_d'Allemagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coucou_d%27Allemagne</t>
+          <t>Coucou_d'Allemagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La coucou d'Allemagne (en allemand Deutscher Sperber) est une race de poule domestique allemande.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coucou_d%27Allemagne</t>
+          <t>Coucou_d'Allemagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,18 +524,90 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>grande race
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">grande race
 C'est une grande volaille au port de bonne hauteur moyenne, dont la forme rappelle la poule commune; plumage richement fourni, bien collé au corps, au dessin coucou; poule vive, mais sans être craintive.
 Elle pond ~180 œufs par an.
 naine
 Volaille naine au port de hauteur moyenne, dont la forme rappelle celle de la poule commune. crête simple, pas trop profondément dentée, oreillons blanc pur et plumage richement fourni, bien collé au corps, avec dessin coucou; poule vive, mais familière.
 Elle pond ~120 œufs par an.
-Origine et histoire
-Elle est élevée dès 1903, tout d'abord sous l'appellation « minorque coucou », plus tard sélectionnée vers le type de la poule commune. Cette volaille provient du croisement de plymouth, leghorn, Berg-Schlotter et minorque. En Allemagne, elle figure en 2011 comme « race menacée » à la liste de la Gesellschaft zur Erhaltung alter und gefährdeter Haustierrassen[1].
-Standard
-grande race
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coucou_d'Allemagne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coucou_d%27Allemagne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine et histoire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est élevée dès 1903, tout d'abord sous l'appellation « minorque coucou », plus tard sélectionnée vers le type de la poule commune. Cette volaille provient du croisement de plymouth, leghorn, Berg-Schlotter et minorque. En Allemagne, elle figure en 2011 comme « race menacée » à la liste de la Gesellschaft zur Erhaltung alter und gefährdeter Haustierrassen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coucou_d'Allemagne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coucou_d%27Allemagne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>grande race
 Poids idéale : Coq : 2,5 à 3 kg ; Poule : 2 à 2,5 kg
 Crête : simple, 4 à 6 crétillons.
 Oreillons : blancs
